--- a/data/statistical/filled_NaN_xlsx/山西省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/山西省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>42.7</v>
       </c>
       <c r="E2">
-        <v>1726.023213863373</v>
+        <v>1726.02321408689</v>
       </c>
       <c r="F2">
         <v>4710.96</v>
@@ -609,85 +609,85 @@
         <v>6.72</v>
       </c>
       <c r="H2">
-        <v>37.73199303402544</v>
+        <v>37.73199303396359</v>
       </c>
       <c r="I2">
-        <v>2.708782249668729</v>
+        <v>2.708782249908836</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-7.982979286462069</v>
       </c>
       <c r="K2">
-        <v>34.96518208947964</v>
+        <v>34.96518208913039</v>
       </c>
       <c r="L2">
-        <v>2.954696471112192</v>
+        <v>3.304562576018382</v>
       </c>
       <c r="M2">
-        <v>500.2538559837267</v>
+        <v>500.2538559976965</v>
       </c>
       <c r="N2">
-        <v>128.9245097988751</v>
+        <v>128.9245098014362</v>
       </c>
       <c r="O2">
-        <v>20.78901960747316</v>
+        <v>20.78901959769428</v>
       </c>
       <c r="P2">
-        <v>1679.462591952792</v>
+        <v>1680.866371441875</v>
       </c>
       <c r="Q2">
-        <v>74.66019608080387</v>
+        <v>74.66019607777707</v>
       </c>
       <c r="R2">
-        <v>21.87658667215146</v>
+        <v>21.87658667028882</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-288181.2943210602</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-5111.354397654533</v>
       </c>
       <c r="U2">
-        <v>0.8543516483041458</v>
+        <v>0.8543516483150597</v>
       </c>
       <c r="V2">
-        <v>41.16857585019898</v>
+        <v>41.16857585462276</v>
       </c>
       <c r="W2">
-        <v>1.095736259361729</v>
+        <v>1.095736261690035</v>
       </c>
       <c r="X2">
-        <v>20631.45588082075</v>
+        <v>20631.45588248968</v>
       </c>
       <c r="Y2">
-        <v>115.2577142979717</v>
+        <v>115.2577143015806</v>
       </c>
       <c r="Z2">
-        <v>257826.2765785441</v>
+        <v>261072.5119021942</v>
       </c>
       <c r="AA2">
-        <v>185.5961539447308</v>
+        <v>380.4405596200377</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1030773.172409058</v>
       </c>
       <c r="AC2">
-        <v>340866.8445243835</v>
+        <v>1239257.851341248</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6936.795454204082</v>
       </c>
       <c r="AE2">
-        <v>5248.452953860164</v>
+        <v>-2928.101088268929</v>
       </c>
       <c r="AF2">
-        <v>974.597433525507</v>
+        <v>1881.962744378888</v>
       </c>
       <c r="AG2">
-        <v>1659.562688227995</v>
+        <v>-18248.202748084</v>
       </c>
       <c r="AH2">
-        <v>15676.54454417395</v>
+        <v>307170.1904334816</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>6.22</v>
       </c>
       <c r="H3">
-        <v>39.0188501289831</v>
+        <v>39.0188501289249</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-5.367690814658999</v>
       </c>
       <c r="K3">
         <v>31.8713378606977</v>
@@ -743,13 +743,13 @@
         <v>76.81</v>
       </c>
       <c r="R3">
-        <v>17.33799018384889</v>
+        <v>17.33799018128775</v>
       </c>
       <c r="S3">
         <v>49504.3</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-2545.582419514656</v>
       </c>
       <c r="U3">
         <v>1.3</v>
@@ -764,34 +764,34 @@
         <v>18676</v>
       </c>
       <c r="Y3">
-        <v>110.1300989112351</v>
+        <v>110.1300989140291</v>
       </c>
       <c r="Z3">
-        <v>275022.5579547079</v>
+        <v>314402.0517358558</v>
       </c>
       <c r="AA3">
-        <v>157.7814686205238</v>
+        <v>339.5664337128401</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>858883.4786529541</v>
       </c>
       <c r="AC3">
-        <v>288393.5459079742</v>
+        <v>1029828.38343811</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5548.470279157162</v>
       </c>
       <c r="AE3">
-        <v>4745.797447972</v>
+        <v>1916.902943807562</v>
       </c>
       <c r="AF3">
-        <v>695.1196978674893</v>
+        <v>3913.750248950163</v>
       </c>
       <c r="AG3">
-        <v>751.0668945116597</v>
+        <v>36646.26767901675</v>
       </c>
       <c r="AH3">
-        <v>9451.534266468476</v>
+        <v>324336.7670563549</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>6.25</v>
       </c>
       <c r="H4">
-        <v>40.31058578430566</v>
+        <v>40.31058578425473</v>
       </c>
       <c r="I4">
         <v>3.1</v>
       </c>
       <c r="J4">
-        <v>0.1046461677178741</v>
+        <v>0.1046461500227451</v>
       </c>
       <c r="K4">
         <v>26.0404270630038</v>
@@ -847,7 +847,7 @@
         <v>79.38</v>
       </c>
       <c r="R4">
-        <v>13.42323528416455</v>
+        <v>13.42323528113775</v>
       </c>
       <c r="S4">
         <v>48011.2</v>
@@ -868,34 +868,34 @@
         <v>20331</v>
       </c>
       <c r="Y4">
-        <v>105.4312197883846</v>
+        <v>105.4312197905965</v>
       </c>
       <c r="Z4">
         <v>317519</v>
       </c>
       <c r="AA4">
-        <v>132.8284216560423</v>
+        <v>303.8711289931089</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>708926.8017959595</v>
       </c>
       <c r="AC4">
-        <v>241179.4522895813</v>
+        <v>846670.2412185669</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4337.971777439117</v>
       </c>
       <c r="AE4">
-        <v>4270.226233549416</v>
+        <v>4729.777280038468</v>
       </c>
       <c r="AF4">
-        <v>1271.303547187766</v>
+        <v>6462.180167171601</v>
       </c>
       <c r="AG4">
-        <v>858.5510516952996</v>
+        <v>-6273.536748450112</v>
       </c>
       <c r="AH4">
-        <v>7788.032678281243</v>
+        <v>360925.1924585876</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>8.434031625278294</v>
+        <v>8.43403160944581</v>
       </c>
       <c r="K5">
         <v>22.157507451785</v>
@@ -972,34 +972,34 @@
         <v>14580</v>
       </c>
       <c r="Y5">
-        <v>101.1610769295366</v>
+        <v>101.1610769312829</v>
       </c>
       <c r="Z5">
         <v>140260</v>
       </c>
       <c r="AA5">
-        <v>110.7370130540803</v>
+        <v>273.3546454515308</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>580903.1418228149</v>
       </c>
       <c r="AC5">
-        <v>199224.56366539</v>
+        <v>689783.4246902466</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3305.29994904995</v>
       </c>
       <c r="AE5">
-        <v>3821.739310637116</v>
+        <v>5909.482577539819</v>
       </c>
       <c r="AF5">
-        <v>312.5145594115401</v>
+        <v>3354.12938130259</v>
       </c>
       <c r="AG5">
-        <v>1359.976539630203</v>
+        <v>66305.62909401116</v>
       </c>
       <c r="AH5">
-        <v>15618.29968862133</v>
+        <v>187137.9454467183</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>14269</v>
       </c>
       <c r="Y6">
-        <v>97.31967033457477</v>
+        <v>97.3196703356225</v>
       </c>
       <c r="Z6">
         <v>288501</v>
       </c>
       <c r="AA6">
-        <v>91.50724281463772</v>
+        <v>248.0169830899686</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>474812.4987487793</v>
       </c>
       <c r="AC6">
-        <v>162528.880033493</v>
+        <v>559167.9338302612</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2450.454794228077</v>
       </c>
       <c r="AE6">
-        <v>3400.336679205298</v>
+        <v>8440.719136984802</v>
       </c>
       <c r="AF6">
-        <v>1156.113879655627</v>
+        <v>7704.608724374988</v>
       </c>
       <c r="AG6">
-        <v>888.9837505374105</v>
+        <v>9073.883508010784</v>
       </c>
       <c r="AH6">
-        <v>12028.13416884956</v>
+        <v>188235.0266387697</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>258811</v>
       </c>
       <c r="AA7">
-        <v>75.13911093957722</v>
+        <v>227.8581419121474</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>390654.872543335</v>
       </c>
       <c r="AC7">
-        <v>131092.4014015198</v>
+        <v>454823.7686462402</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1773.436312556267</v>
       </c>
       <c r="AE7">
-        <v>3006.018339268863</v>
+        <v>4741.213815622388</v>
       </c>
       <c r="AF7">
-        <v>763.2698627756859</v>
+        <v>7314.564372295057</v>
       </c>
       <c r="AG7">
-        <v>1280.618849583502</v>
+        <v>-16992.77775409272</v>
       </c>
       <c r="AH7">
-        <v>12942.94879000555</v>
+        <v>148079.827107067</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>280378</v>
       </c>
       <c r="AA8">
-        <v>61.6326174242422</v>
+        <v>212.8781219124794</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>328430.2632369995</v>
       </c>
       <c r="AC8">
-        <v>104915.1277656555</v>
+        <v>376750.9291534424</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1274.244504332542</v>
       </c>
       <c r="AE8">
-        <v>2638.784290805459</v>
+        <v>1081.54147398453</v>
       </c>
       <c r="AF8">
-        <v>360.673545249839</v>
+        <v>613.6088716593471</v>
       </c>
       <c r="AG8">
-        <v>1535.7019275684</v>
+        <v>-17527.60169967199</v>
       </c>
       <c r="AH8">
-        <v>11044.77237236694</v>
+        <v>195627.4632873563</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>326602</v>
       </c>
       <c r="AA9">
-        <v>50.98776227142662</v>
+        <v>203.0769230984151</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>288138.6708297729</v>
       </c>
       <c r="AC9">
-        <v>83997.05912590027</v>
+        <v>324949.4153366089</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>952.8793694376945</v>
       </c>
       <c r="AE9">
-        <v>2298.634533844888</v>
+        <v>-643.8451437798799</v>
       </c>
       <c r="AF9">
-        <v>92.50095969201487</v>
+        <v>3074.240656381073</v>
       </c>
       <c r="AG9">
-        <v>904.0345239342562</v>
+        <v>31907.92928122353</v>
       </c>
       <c r="AH9">
-        <v>9865.304103182229</v>
+        <v>332286.4605615631</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>282371</v>
       </c>
       <c r="AA10">
-        <v>43.20454548113048</v>
+        <v>198.4545454606414</v>
       </c>
       <c r="AB10">
-        <v>9622.802271366119</v>
+        <v>269780.0952911377</v>
       </c>
       <c r="AC10">
-        <v>68338.19547843933</v>
+        <v>299419.2271957397</v>
       </c>
       <c r="AD10">
-        <v>21.90909090638161</v>
+        <v>809.3409078717232</v>
       </c>
       <c r="AE10">
-        <v>1985.569068364799</v>
+        <v>2926.592230200324</v>
       </c>
       <c r="AF10">
-        <v>146.4920051504065</v>
+        <v>-682.5851539409435</v>
       </c>
       <c r="AG10">
-        <v>734.8815764481624</v>
+        <v>24092.57162187017</v>
       </c>
       <c r="AH10">
-        <v>6561.656061301393</v>
+        <v>241052.0564735734</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>299713</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="AB11">
-        <v>27341</v>
+        <v>203829</v>
       </c>
       <c r="AC11">
-        <v>44119</v>
+        <v>218756</v>
       </c>
       <c r="AD11">
-        <v>150</v>
+        <v>819</v>
       </c>
       <c r="AE11">
-        <v>1699.587894365191</v>
+        <v>1705</v>
       </c>
       <c r="AF11">
-        <v>121</v>
+        <v>3321</v>
       </c>
       <c r="AG11">
-        <v>975</v>
+        <v>6135</v>
       </c>
       <c r="AH11">
-        <v>4141</v>
+        <v>180340</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>302851</v>
       </c>
       <c r="AA12">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="AB12">
-        <v>52044</v>
+        <v>231106</v>
       </c>
       <c r="AC12">
-        <v>66714</v>
+        <v>268109</v>
       </c>
       <c r="AD12">
-        <v>250</v>
+        <v>1066</v>
       </c>
       <c r="AE12">
-        <v>1440.691011868417</v>
+        <v>614</v>
       </c>
       <c r="AF12">
-        <v>122</v>
+        <v>748</v>
       </c>
       <c r="AG12">
-        <v>4255</v>
+        <v>8638</v>
       </c>
       <c r="AH12">
-        <v>8820</v>
+        <v>181465</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>298796</v>
       </c>
       <c r="AA13">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="AB13">
-        <v>58480</v>
+        <v>433737</v>
       </c>
       <c r="AC13">
-        <v>76544</v>
+        <v>494820</v>
       </c>
       <c r="AD13">
-        <v>277</v>
+        <v>1307</v>
       </c>
       <c r="AE13">
-        <v>1277</v>
+        <v>1160</v>
       </c>
       <c r="AF13">
-        <v>2932</v>
+        <v>4231</v>
       </c>
       <c r="AG13">
-        <v>1024</v>
+        <v>6183</v>
       </c>
       <c r="AH13">
-        <v>12177</v>
+        <v>288532</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>303501</v>
       </c>
       <c r="AA14">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="AB14">
-        <v>47826</v>
+        <v>465758</v>
       </c>
       <c r="AC14">
-        <v>54949</v>
+        <v>571955</v>
       </c>
       <c r="AD14">
-        <v>485</v>
+        <v>2424</v>
       </c>
       <c r="AE14">
-        <v>1004.150121323764</v>
+        <v>820</v>
       </c>
       <c r="AF14">
-        <v>891</v>
+        <v>4097</v>
       </c>
       <c r="AG14">
-        <v>917</v>
+        <v>6528</v>
       </c>
       <c r="AH14">
-        <v>25427</v>
+        <v>270636</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>285944</v>
       </c>
       <c r="AA15">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="AB15">
-        <v>42822</v>
+        <v>640477</v>
       </c>
       <c r="AC15">
-        <v>53317</v>
+        <v>649620</v>
       </c>
       <c r="AD15">
-        <v>585</v>
+        <v>2867</v>
       </c>
       <c r="AE15">
-        <v>600</v>
+        <v>2371</v>
       </c>
       <c r="AF15">
-        <v>764</v>
+        <v>1486</v>
       </c>
       <c r="AG15">
-        <v>451</v>
+        <v>11896</v>
       </c>
       <c r="AH15">
-        <v>11446</v>
+        <v>301777</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>266694</v>
       </c>
       <c r="AA16">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="AB16">
-        <v>83719</v>
+        <v>637668</v>
       </c>
       <c r="AC16">
-        <v>59158</v>
+        <v>649858</v>
       </c>
       <c r="AD16">
-        <v>813</v>
+        <v>3187</v>
       </c>
       <c r="AE16">
-        <v>675.9463967531919</v>
+        <v>2685</v>
       </c>
       <c r="AF16">
-        <v>200</v>
+        <v>978</v>
       </c>
       <c r="AG16">
-        <v>70</v>
+        <v>3519</v>
       </c>
       <c r="AH16">
-        <v>1607</v>
+        <v>408201</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>393.6095</v>
       </c>
       <c r="K17">
-        <v>14.00507080834359</v>
+        <v>14.00507080904208</v>
       </c>
       <c r="L17">
-        <v>2.857492772481017</v>
+        <v>2.813639048096677</v>
       </c>
       <c r="M17">
         <v>21.9719713918093</v>
@@ -2226,28 +2226,28 @@
         <v>311968</v>
       </c>
       <c r="AA17">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="AB17">
-        <v>112246.3</v>
+        <v>787754.5</v>
       </c>
       <c r="AC17">
-        <v>96722</v>
+        <v>802176.7</v>
       </c>
       <c r="AD17">
-        <v>882</v>
+        <v>3868</v>
       </c>
       <c r="AE17">
-        <v>552.4709716811776</v>
+        <v>1725</v>
       </c>
       <c r="AF17">
-        <v>544.4019582853081</v>
+        <v>576</v>
       </c>
       <c r="AG17">
-        <v>2186</v>
+        <v>5818</v>
       </c>
       <c r="AH17">
-        <v>22566</v>
+        <v>368452</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>449.5</v>
       </c>
       <c r="K18">
-        <v>16.15270635811612</v>
+        <v>16.15270635881461</v>
       </c>
       <c r="L18">
-        <v>2.917991378110372</v>
+        <v>3.10622354986726</v>
       </c>
       <c r="M18">
         <v>16.760920222308</v>
@@ -2312,13 +2312,13 @@
         <v>4215</v>
       </c>
       <c r="U18">
-        <v>2.671494505510054</v>
+        <v>2.671494505430019</v>
       </c>
       <c r="V18">
         <v>94.5</v>
       </c>
       <c r="W18">
-        <v>106.04487912287</v>
+        <v>106.0448791163508</v>
       </c>
       <c r="X18">
         <v>14414</v>
@@ -2330,28 +2330,28 @@
         <v>340148</v>
       </c>
       <c r="AA18">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="AB18">
-        <v>135177.9</v>
+        <v>864734.6</v>
       </c>
       <c r="AC18">
-        <v>165004.9</v>
+        <v>975921.9</v>
       </c>
       <c r="AD18">
-        <v>1012</v>
+        <v>7546</v>
       </c>
       <c r="AE18">
-        <v>1076</v>
+        <v>18444.2</v>
       </c>
       <c r="AF18">
-        <v>926.8670385766068</v>
+        <v>8439.5</v>
       </c>
       <c r="AG18">
-        <v>1544</v>
+        <v>33284.7</v>
       </c>
       <c r="AH18">
-        <v>16296.3</v>
+        <v>150517.7</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>51.1153</v>
       </c>
       <c r="E19">
-        <v>18404.798214674</v>
+        <v>18404.79821447283</v>
       </c>
       <c r="F19">
         <v>21158.9932</v>
@@ -2386,10 +2386,10 @@
         <v>438.2</v>
       </c>
       <c r="K19">
-        <v>18.74346394569147</v>
+        <v>18.74346394650638</v>
       </c>
       <c r="L19">
-        <v>2.918369070419047</v>
+        <v>2.8781713456032</v>
       </c>
       <c r="M19">
         <v>13.428337174364</v>
@@ -2413,16 +2413,16 @@
         <v>1078789</v>
       </c>
       <c r="T19">
-        <v>590.9890094995499</v>
+        <v>590.9890127182007</v>
       </c>
       <c r="U19">
-        <v>2.66641208792862</v>
+        <v>2.666412087834033</v>
       </c>
       <c r="V19">
         <v>95.8</v>
       </c>
       <c r="W19">
-        <v>109.4225659362273</v>
+        <v>109.4225659280783</v>
       </c>
       <c r="X19">
         <v>15146</v>
@@ -2434,28 +2434,28 @@
         <v>347355</v>
       </c>
       <c r="AA19">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AB19">
-        <v>133299</v>
+        <v>858548.9</v>
       </c>
       <c r="AC19">
-        <v>160767.5</v>
+        <v>1221926.7</v>
       </c>
       <c r="AD19">
-        <v>1138</v>
+        <v>7647</v>
       </c>
       <c r="AE19">
-        <v>17.2</v>
+        <v>1769.9</v>
       </c>
       <c r="AF19">
-        <v>30</v>
+        <v>15572.4</v>
       </c>
       <c r="AG19">
-        <v>2230.3</v>
+        <v>19622.5</v>
       </c>
       <c r="AH19">
-        <v>9790.5</v>
+        <v>139679.8</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>50.269</v>
       </c>
       <c r="E20">
-        <v>19634.62846682221</v>
+        <v>19634.62846659869</v>
       </c>
       <c r="F20">
         <v>20331.8547</v>
@@ -2490,10 +2490,10 @@
         <v>460.2548</v>
       </c>
       <c r="K20">
-        <v>21.77734357095324</v>
+        <v>21.77734357188456</v>
       </c>
       <c r="L20">
-        <v>3.135256574651341</v>
+        <v>3.023710997444197</v>
       </c>
       <c r="M20">
         <v>9.095266070055789</v>
@@ -2517,16 +2517,16 @@
         <v>1206383</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-1582.71153652668</v>
       </c>
       <c r="U20">
-        <v>2.647370394319296</v>
+        <v>2.647370394213794</v>
       </c>
       <c r="V20">
         <v>99.59999999999999</v>
       </c>
       <c r="W20">
-        <v>112.4259427946527</v>
+        <v>112.4259427851066</v>
       </c>
       <c r="X20">
         <v>14785</v>
@@ -2538,28 +2538,28 @@
         <v>272071</v>
       </c>
       <c r="AA20">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="AB20">
-        <v>161270</v>
+        <v>1212382</v>
       </c>
       <c r="AC20">
-        <v>197834</v>
+        <v>1355626</v>
       </c>
       <c r="AD20">
-        <v>1365</v>
+        <v>8586</v>
       </c>
       <c r="AE20">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AF20">
-        <v>137.9535295978162</v>
+        <v>10</v>
       </c>
       <c r="AG20">
-        <v>1373</v>
+        <v>4893</v>
       </c>
       <c r="AH20">
-        <v>7736</v>
+        <v>125885</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>43.8</v>
       </c>
       <c r="E21">
-        <v>20892.09492343664</v>
+        <v>20892.09492319077</v>
       </c>
       <c r="F21">
         <v>21965.5</v>
@@ -2594,25 +2594,25 @@
         <v>477.779</v>
       </c>
       <c r="K21">
-        <v>25.2543452339014</v>
+        <v>25.25434523483273</v>
       </c>
       <c r="L21">
-        <v>3.141225753234065</v>
+        <v>3.38628787967889</v>
       </c>
       <c r="M21">
         <v>6.5054428474896</v>
       </c>
       <c r="N21">
-        <v>143.3676470599603</v>
+        <v>143.3676470564678</v>
       </c>
       <c r="O21">
-        <v>108.4449019529857</v>
+        <v>108.4449019604363</v>
       </c>
       <c r="P21">
         <v>2338.6</v>
       </c>
       <c r="Q21">
-        <v>93.07176470465492</v>
+        <v>93.07176470803097</v>
       </c>
       <c r="R21">
         <v>43.9</v>
@@ -2621,49 +2621,49 @@
         <v>1303886</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-4035.204587459564</v>
       </c>
       <c r="U21">
-        <v>2.614369424696633</v>
+        <v>2.614369424569304</v>
       </c>
       <c r="V21">
         <v>98.40000000000001</v>
       </c>
       <c r="W21">
-        <v>115.0550096980296</v>
+        <v>115.055009687203</v>
       </c>
       <c r="X21">
-        <v>16733.24019682407</v>
+        <v>16733.24019503593</v>
       </c>
       <c r="Y21">
-        <v>91.14692307892255</v>
+        <v>91.14692308043595</v>
       </c>
       <c r="Z21">
         <v>338830</v>
       </c>
       <c r="AA21">
-        <v>158</v>
+        <v>512</v>
       </c>
       <c r="AB21">
-        <v>146805</v>
+        <v>1619539</v>
       </c>
       <c r="AC21">
-        <v>265646</v>
+        <v>1903115</v>
       </c>
       <c r="AD21">
-        <v>1610</v>
+        <v>10717</v>
       </c>
       <c r="AE21">
-        <v>544</v>
+        <v>346</v>
       </c>
       <c r="AF21">
-        <v>1365.521047599106</v>
+        <v>184</v>
       </c>
       <c r="AG21">
-        <v>2711</v>
+        <v>188483</v>
       </c>
       <c r="AH21">
-        <v>5043</v>
+        <v>300335</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>40.7967</v>
       </c>
       <c r="E22">
-        <v>22177.1975845471</v>
+        <v>22177.19758427888</v>
       </c>
       <c r="F22">
         <v>21922.6268</v>
@@ -2692,82 +2692,82 @@
         <v>63.96</v>
       </c>
       <c r="I22">
-        <v>2.418606811414065</v>
+        <v>2.418606811144855</v>
       </c>
       <c r="J22">
-        <v>587.1620041085407</v>
+        <v>587.1620041178539</v>
       </c>
       <c r="K22">
-        <v>29.1744689346524</v>
+        <v>29.17446893581655</v>
       </c>
       <c r="L22">
-        <v>2.842632343900702</v>
+        <v>2.895330662823801</v>
       </c>
       <c r="M22">
-        <v>28.91716097574681</v>
+        <v>28.91716096829623</v>
       </c>
       <c r="N22">
-        <v>148.9879772969289</v>
+        <v>148.9879772929708</v>
       </c>
       <c r="O22">
-        <v>125.1730237263255</v>
+        <v>125.173023735173</v>
       </c>
       <c r="P22">
-        <v>2005.964551557475</v>
+        <v>1895.918605295425</v>
       </c>
       <c r="Q22">
-        <v>91.21654282626696</v>
+        <v>91.21654283022508</v>
       </c>
       <c r="R22">
-        <v>49.634558822494</v>
+        <v>49.63455883297138</v>
       </c>
       <c r="S22">
         <v>1052514</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-6766.490139961243</v>
       </c>
       <c r="U22">
-        <v>2.567409179053357</v>
+        <v>2.567409178907837</v>
       </c>
       <c r="V22">
-        <v>96.40541796071921</v>
+        <v>96.40541795582976</v>
       </c>
       <c r="W22">
-        <v>117.3097666469403</v>
+        <v>117.309766634251</v>
       </c>
       <c r="X22">
-        <v>18019.46155899763</v>
+        <v>18019.46155703068</v>
       </c>
       <c r="Y22">
-        <v>94.16529670648742</v>
+        <v>94.1652967085829</v>
       </c>
       <c r="Z22">
-        <v>319240.7221265537</v>
+        <v>295352.1137734528</v>
       </c>
       <c r="AA22">
-        <v>174</v>
+        <v>592</v>
       </c>
       <c r="AB22">
-        <v>141752.1</v>
+        <v>1833476.4</v>
       </c>
       <c r="AC22">
-        <v>272242.2</v>
+        <v>2052554.3</v>
       </c>
       <c r="AD22">
-        <v>1635</v>
+        <v>13211</v>
       </c>
       <c r="AE22">
-        <v>341.3582187145948</v>
+        <v>53.4</v>
       </c>
       <c r="AF22">
-        <v>1332.358361953474</v>
+        <v>15.5</v>
       </c>
       <c r="AG22">
-        <v>620</v>
+        <v>10818.3</v>
       </c>
       <c r="AH22">
-        <v>10026.9</v>
+        <v>329149.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>42.7</v>
       </c>
       <c r="E23">
-        <v>23489.93645013869</v>
+        <v>23489.93644983321</v>
       </c>
       <c r="F23">
-        <v>24433.69028829783</v>
+        <v>24433.69028835744</v>
       </c>
       <c r="G23">
         <v>-2.25</v>
       </c>
       <c r="H23">
-        <v>65.78048970578675</v>
+        <v>65.78048970585223</v>
       </c>
       <c r="I23">
-        <v>2.204206398666429</v>
+        <v>2.204206398353563</v>
       </c>
       <c r="J23">
-        <v>646.9182624723762</v>
+        <v>646.9182624844834</v>
       </c>
       <c r="K23">
-        <v>33.53771467308979</v>
+        <v>33.53771467425395</v>
       </c>
       <c r="L23">
-        <v>3.14161005491064</v>
+        <v>3.167019856841052</v>
       </c>
       <c r="M23">
-        <v>39.38777042459697</v>
+        <v>39.38777041621506</v>
       </c>
       <c r="N23">
-        <v>155.0943240460474</v>
+        <v>155.0943240413908</v>
       </c>
       <c r="O23">
-        <v>143.1126109287143</v>
+        <v>143.1126109370962</v>
       </c>
       <c r="P23">
-        <v>2105.331299519215</v>
+        <v>1812.140257479087</v>
       </c>
       <c r="Q23">
-        <v>89.07889576756861</v>
+        <v>89.07889577175956</v>
       </c>
       <c r="R23">
-        <v>57.57279411493801</v>
+        <v>57.57279412820935</v>
       </c>
       <c r="S23">
-        <v>1397401.716835022</v>
+        <v>1397401.716827393</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-9776.568193793297</v>
       </c>
       <c r="U23">
-        <v>2.506489657393104</v>
+        <v>2.506489657222119</v>
       </c>
       <c r="V23">
-        <v>95.72835913812742</v>
+        <v>95.72835913253948</v>
       </c>
       <c r="W23">
-        <v>119.1902136406861</v>
+        <v>119.1902136264835</v>
       </c>
       <c r="X23">
-        <v>19454.82198214531</v>
+        <v>19454.82197999954</v>
       </c>
       <c r="Y23">
-        <v>97.6124065980548</v>
+        <v>97.61240660061594</v>
       </c>
       <c r="Z23">
-        <v>305411.9182090797</v>
+        <v>307894.3924798075</v>
       </c>
       <c r="AA23">
-        <v>202.4318181760609</v>
+        <v>609.6363637074828</v>
       </c>
       <c r="AB23">
-        <v>171616.4886345863</v>
+        <v>2027023.150360107</v>
       </c>
       <c r="AC23">
-        <v>343360.6227321625</v>
+        <v>2358217.418464661</v>
       </c>
       <c r="AD23">
-        <v>1876.727272747084</v>
+        <v>15125.56818431616</v>
       </c>
       <c r="AE23">
-        <v>380.3885425850749</v>
+        <v>-1370.783420835042</v>
       </c>
       <c r="AF23">
-        <v>182.1800289949537</v>
+        <v>5054.849385108662</v>
       </c>
       <c r="AG23">
-        <v>1613.203803487254</v>
+        <v>53185.69844243552</v>
       </c>
       <c r="AH23">
-        <v>5789.510220077869</v>
+        <v>239363.1037980205</v>
       </c>
     </row>
   </sheetData>
